--- a/biology/Médecine/Anesthésie_loco-régionale/Anesthésie_loco-régionale.xlsx
+++ b/biology/Médecine/Anesthésie_loco-régionale/Anesthésie_loco-régionale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anesth%C3%A9sie_loco-r%C3%A9gionale</t>
+          <t>Anesthésie_loco-régionale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'anesthésie loco-régionale est une stratégie d'anesthésie qui consiste à injecter des anesthésiques locaux au voisinage d'un nerf ou de la moelle épinière, en amont de la zone douloureuse, afin d'insensibiliser une région donnée de l'organisme. Elle est pratiquée par des médecins anesthésistes-réanimateurs.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anesth%C3%A9sie_loco-r%C3%A9gionale</t>
+          <t>Anesthésie_loco-régionale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une anesthésie loco-régionale se distingue d'une anesthésie locale car elle consiste à anesthésier les nerfs en amont de la zone douloureuse. Elle se pratique à tous les niveaux du système nerveux, souvent avec l'appui de l'échographie pour guider le geste et réduire les complications possibles. 
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Anesth%C3%A9sie_loco-r%C3%A9gionale</t>
+          <t>Anesthésie_loco-régionale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,13 +556,15 @@
           <t>Types d'anesthésies loco-régionales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Selon sa localisation, l'anesthésie loco-régionale peut être :
-Périmédullaire ou centrale[1]:
+Périmédullaire ou centrale:
 Rachianesthésie (e.g. césarienne)
 Péridurale (e.g. travail obstétrical)
-Périphérique[2]
+Périphérique
 Tronculaire/plexique(liste non exhaustive):
 Blocs de la face
 Bloc cervical (e.g. chirurgie carotidienne)
@@ -575,7 +591,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Anesth%C3%A9sie_loco-r%C3%A9gionale</t>
+          <t>Anesthésie_loco-régionale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -593,7 +609,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon la nature de l'intervention,  l'anesthésie loco-régionale peut être recommandée de façon isolée, ou en complément d'une anesthésie générale. Dans ce dernier cas, elle fait partie d'une stratégie multimodale de prise en charge de la douleur, pouvant être une aide précieuse pour l'épargne morphinique.
 Même lorsqu'elle est utilisée de façon isolée pour permettre la chirurgie, elle ne dispense pas des règles de jeûne pré opératoire et d'une consultation d'anesthésie.
